--- a/Hardware/Radar_Amp/BOM.xlsx
+++ b/Hardware/Radar_Amp/BOM.xlsx
@@ -488,12 +488,12 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41:C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="32.11"/>
   </cols>
   <sheetData>
@@ -1329,7 +1329,11 @@
       <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="0" t="n">
+        <f aca="false">ROUND(F41*3.5, 0)</f>
+        <v>32</v>
+      </c>
+      <c r="F41" s="2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1337,7 +1341,11 @@
       <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="0" t="n">
+        <f aca="false">ROUND(F42*3.5, 0)</f>
+        <v>25</v>
+      </c>
+      <c r="F42" s="2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1345,7 +1353,11 @@
       <c r="B43" s="2" t="n">
         <v>865080642006</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="0" t="n">
+        <f aca="false">ROUND(F43*3.5, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="F43" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1353,7 +1365,11 @@
       <c r="B44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="0" t="n">
+        <f aca="false">ROUND(F44*3.5, 0)</f>
+        <v>14</v>
+      </c>
+      <c r="F44" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1361,7 +1377,11 @@
       <c r="B45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="0" t="n">
+        <f aca="false">ROUND(F45*3.5, 0)</f>
+        <v>49</v>
+      </c>
+      <c r="F45" s="2" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1369,7 +1389,11 @@
       <c r="B46" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="0" t="n">
+        <f aca="false">ROUND(F46*3.5, 0)</f>
+        <v>28</v>
+      </c>
+      <c r="F46" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1377,7 +1401,11 @@
       <c r="B47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="0" t="n">
+        <f aca="false">ROUND(F47*3.5, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="F47" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1385,7 +1413,11 @@
       <c r="B48" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="0" t="n">
+        <f aca="false">ROUND(F48*3.5, 0)</f>
+        <v>14</v>
+      </c>
+      <c r="F48" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1393,7 +1425,11 @@
       <c r="B49" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="2" t="n">
+      <c r="C49" s="0" t="n">
+        <f aca="false">ROUND(F49*3.5, 0)</f>
+        <v>39</v>
+      </c>
+      <c r="F49" s="2" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1401,7 +1437,11 @@
       <c r="B50" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="0" t="n">
+        <f aca="false">ROUND(F50*3.5, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,7 +1449,11 @@
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="2" t="n">
+      <c r="C51" s="0" t="n">
+        <f aca="false">ROUND(F51*3.5, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="F51" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1417,7 +1461,11 @@
       <c r="B52" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="2" t="n">
+      <c r="C52" s="0" t="n">
+        <f aca="false">ROUND(F52*3.5, 0)</f>
+        <v>14</v>
+      </c>
+      <c r="F52" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1425,7 +1473,11 @@
       <c r="B53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="2" t="n">
+      <c r="C53" s="0" t="n">
+        <f aca="false">ROUND(F53*3.5, 0)</f>
+        <v>28</v>
+      </c>
+      <c r="F53" s="2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1433,7 +1485,11 @@
       <c r="B54" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="2" t="n">
+      <c r="C54" s="0" t="n">
+        <f aca="false">ROUND(F54*3.5, 0)</f>
+        <v>14</v>
+      </c>
+      <c r="F54" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1441,7 +1497,11 @@
       <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="2" t="n">
+      <c r="C55" s="0" t="n">
+        <f aca="false">ROUND(F55*3.5, 0)</f>
+        <v>14</v>
+      </c>
+      <c r="F55" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1449,7 +1509,11 @@
       <c r="B56" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="2" t="n">
+      <c r="C56" s="0" t="n">
+        <f aca="false">ROUND(F56*3.5, 0)</f>
+        <v>14</v>
+      </c>
+      <c r="F56" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1457,7 +1521,11 @@
       <c r="B57" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="2" t="n">
+      <c r="C57" s="0" t="n">
+        <f aca="false">ROUND(F57*3.5, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="F57" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1465,7 +1533,11 @@
       <c r="B58" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="2" t="n">
+      <c r="C58" s="0" t="n">
+        <f aca="false">ROUND(F58*3.5, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="F58" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1473,7 +1545,11 @@
       <c r="B59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="2" t="n">
+      <c r="C59" s="0" t="n">
+        <f aca="false">ROUND(F59*3.5, 0)</f>
+        <v>14</v>
+      </c>
+      <c r="F59" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1481,7 +1557,11 @@
       <c r="B60" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="2" t="n">
+      <c r="C60" s="0" t="n">
+        <f aca="false">ROUND(F60*3.5, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="F60" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1489,7 +1569,11 @@
       <c r="B61" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="2" t="n">
+      <c r="C61" s="0" t="n">
+        <f aca="false">ROUND(F61*3.5, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="F61" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1497,7 +1581,11 @@
       <c r="B62" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="2" t="n">
+      <c r="C62" s="0" t="n">
+        <f aca="false">ROUND(F62*3.5, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="F62" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1505,7 +1593,11 @@
       <c r="B63" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="2" t="n">
+      <c r="C63" s="0" t="n">
+        <f aca="false">ROUND(F63*3.5, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="F63" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1513,7 +1605,11 @@
       <c r="B64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="2" t="n">
+      <c r="C64" s="0" t="n">
+        <f aca="false">ROUND(F64*3.5, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="F64" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1521,7 +1617,11 @@
       <c r="B65" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="2" t="n">
+      <c r="C65" s="0" t="n">
+        <f aca="false">ROUND(F65*3.5, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="F65" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1529,7 +1629,11 @@
       <c r="B66" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="2" t="n">
+      <c r="C66" s="0" t="n">
+        <f aca="false">ROUND(F66*3.5, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="F66" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1537,7 +1641,11 @@
       <c r="B67" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="2" t="n">
+      <c r="C67" s="0" t="n">
+        <f aca="false">ROUND(F67*3.5, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="F67" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1545,7 +1653,11 @@
       <c r="B68" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="2" t="n">
+      <c r="C68" s="0" t="n">
+        <f aca="false">ROUND(F68*3.5, 0)</f>
+        <v>21</v>
+      </c>
+      <c r="F68" s="2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1553,7 +1665,11 @@
       <c r="B69" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C69" s="2" t="n">
+      <c r="C69" s="0" t="n">
+        <f aca="false">ROUND(F69*3.5, 0)</f>
+        <v>14</v>
+      </c>
+      <c r="F69" s="2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1561,7 +1677,11 @@
       <c r="B70" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C70" s="2" t="n">
+      <c r="C70" s="0" t="n">
+        <f aca="false">ROUND(F70*3.5, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="F70" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1569,7 +1689,11 @@
       <c r="B71" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C71" s="2" t="n">
+      <c r="C71" s="0" t="n">
+        <f aca="false">ROUND(F71*3.5, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="F71" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,7 +1701,11 @@
       <c r="B72" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C72" s="2" t="n">
+      <c r="C72" s="0" t="n">
+        <f aca="false">ROUND(F72*3.5, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="F72" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1585,7 +1713,11 @@
       <c r="B73" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="2" t="n">
+      <c r="C73" s="0" t="n">
+        <f aca="false">ROUND(F73*3.5, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="F73" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1593,7 +1725,11 @@
       <c r="B74" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C74" s="2" t="n">
+      <c r="C74" s="0" t="n">
+        <f aca="false">ROUND(F74*3.5, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="F74" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1601,7 +1737,11 @@
       <c r="B75" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C75" s="2" t="n">
+      <c r="C75" s="0" t="n">
+        <f aca="false">ROUND(F75*3.5, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="F75" s="2" t="n">
         <v>1</v>
       </c>
     </row>
